--- a/after/assignment_after_AGW5093.xlsx
+++ b/after/assignment_after_AGW5093.xlsx
@@ -3,18 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <workbookProtection lockStructure="true"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
-    <sheet name="Amortization Table" sheetId="5" r:id="rId1"/>
-    <sheet name="PSA by Disc Rate" sheetId="7" r:id="rId2"/>
-    <sheet name="FRM Balance Chart" sheetId="4" r:id="rId3"/>
-    <sheet name="Payment Chart" sheetId="6" r:id="rId4"/>
-    <sheet name="AGW5093" r:id="rId46" sheetId="8" state="hidden"/>
+    <sheet name="Amortization Table" sheetId="1" r:id="rId1"/>
+    <sheet name="PSA by Disc Rate" sheetId="2" r:id="rId2"/>
+    <sheet name="FRM Balance Chart" sheetId="3" r:id="rId3"/>
+    <sheet name="Payment Chart" sheetId="4" r:id="rId4"/>
+    <sheet name="AGW5093" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Liu Xiao - Personal View" guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1280" windowHeight="749" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Initial Loan Amount</t>
   </si>
@@ -144,6 +147,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>eee</t>
   </si>
 </sst>
 </file>
@@ -388,7 +394,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="546">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -536,427 +542,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1077,37 +662,37 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.3543918186796E6</c:v>
+                  <c:v>1.34382084305171E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.27080182814174E6</c:v>
+                  <c:v>1.26032473457144E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.19453614201759E6</c:v>
+                  <c:v>1.18415203630094E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.12485324352347E6</c:v>
+                  <c:v>1.11456124052977E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.06109287329806E6</c:v>
+                  <c:v>1.05089209687237E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00266666666666E6</c:v>
+                  <c:v>992556.2495334576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>949049.9080058097</c:v>
+                  <c:v>939028.9916737212</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>899774.2654326661</c:v>
+                  <c:v>889842.0001002782</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>854421.3861299017</c:v>
+                  <c:v>844576.930592632</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>812617.2475333532</c:v>
+                  <c:v>802859.7690913738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>774027.1726375441</c:v>
+                  <c:v>764355.847004744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,37 +765,37 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2794431542696E6</c:v>
+                  <c:v>1.26579030620279E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.21510461557572E6</c:v>
+                  <c:v>1.20157365743324E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.15569087694361E6</c:v>
+                  <c:v>1.14228064222953E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1007457829188E6</c:v>
+                  <c:v>1.08745511702225E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.04986016488295E6</c:v>
+                  <c:v>1.03668792495001E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00266666666666E6</c:v>
+                  <c:v>989611.7214737215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>958835.1666407533</c:v>
+                  <c:v>945896.3964692695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>918068.7252013971</c:v>
+                  <c:v>905245.021714116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>880099.9952537766</c:v>
+                  <c:v>867390.2613723322</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>844688.0409035662</c:v>
+                  <c:v>832091.1906874677</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>811615.5162256277</c:v>
+                  <c:v>799130.4747526157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,37 +868,37 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.22771582873544E6</c:v>
+                  <c:v>1.21104414313568E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.17642151598882E6</c:v>
+                  <c:v>1.15989911311484E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.12854285626294E6</c:v>
+                  <c:v>1.11216830366393E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.08379294876653E6</c:v>
+                  <c:v>1.06756482862003E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.04191244468107E6</c:v>
+                  <c:v>1.02582935363497E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00266666666666E6</c:v>
+                  <c:v>986727.2156830467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>965843.0474785571</c:v>
+                  <c:v>950045.8616792662</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>931248.8508337197</c:v>
+                  <c:v>915592.5693477067</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>898709.1420613137</c:v>
+                  <c:v>883192.4178737155</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>868064.979927308</c:v>
+                  <c:v>852686.4797302262</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>839171.8044114053</c:v>
+                  <c:v>823930.2084563813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,37 +971,37 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.16416391395414E6</c:v>
+                  <c:v>1.14164354251469E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.12848610134971E6</c:v>
+                  <c:v>1.10616795455243E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0946151885234E6</c:v>
+                  <c:v>1.07249732100049E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.06242854407079E6</c:v>
+                  <c:v>1.04050903036396E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.031813547778E6</c:v>
+                  <c:v>1.01009048212303E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00266666666666E6</c:v>
+                  <c:v>981138.1627805121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>974892.623914394</c:v>
+                  <c:v>953556.8147846171</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>948403.6507190204</c:v>
+                  <c:v>927258.6883956591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>923118.812287591</c:v>
+                  <c:v>902162.8676773908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>898963.4001139488</c:v>
+                  <c:v>878194.6627769211</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>875868.3835788788</c:v>
+                  <c:v>855285.0615271707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,37 +1074,37 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.10635113708104E6</c:v>
+                  <c:v>1.07288837379757E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.08426413633341E6</c:v>
+                  <c:v>1.05110211873356E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.06288255161367E6</c:v>
+                  <c:v>1.03001838432444E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.04217515274965E6</c:v>
+                  <c:v>1.00960597004992E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.02211246822795E6</c:v>
+                  <c:v>989835.4337275085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00266666666666E6</c:v>
+                  <c:v>970678.9729888689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>983811.4474446447</c:v>
+                  <c:v>952110.3159127061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>965521.939701331</c:v>
+                  <c:v>934104.6200281592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>947774.6089945148</c:v>
+                  <c:v>916638.3789760902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>930547.1709690618</c:v>
+                  <c:v>899689.3361812857</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>913818.5114494072</c:v>
+                  <c:v>883236.4049483958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,37 +1177,37 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0807886508197E6</c:v>
+                  <c:v>1.03738751627288E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.064440738119E6</c:v>
+                  <c:v>1.02142908256093E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.04846590182396E6</c:v>
+                  <c:v>1.00583998064973E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.03285259744752E6</c:v>
+                  <c:v>990608.7043571057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.01758973693588E6</c:v>
+                  <c:v>975724.2035198268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00266666666666E6</c:v>
+                  <c:v>961175.8619965867</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>988073.1466932422</c:v>
+                  <c:v>946953.4769169285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>973799.33115452</c:v>
+                  <c:v>933047.2390956396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>959835.7497755891</c:v>
+                  <c:v>919447.7145379499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>946173.2903896266</c:v>
+                  <c:v>906145.8269659194</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>932803.1824167392</c:v>
+                  <c:v>893132.84130172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,11 +1224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2040167848"/>
-        <c:axId val="2123936680"/>
+        <c:axId val="2039048712"/>
+        <c:axId val="2039053256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2040167848"/>
+        <c:axId val="2039048712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123936680"/>
+        <c:crossAx val="2039053256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1661,7 +1246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123936680"/>
+        <c:axId val="2039053256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500000.0"/>
@@ -1673,7 +1258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2040167848"/>
+        <c:crossAx val="2039048712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4339,11 +3924,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111789640"/>
-        <c:axId val="2111795672"/>
+        <c:axId val="2082103640"/>
+        <c:axId val="2085216968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111789640"/>
+        <c:axId val="2082103640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4417,7 +4002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111795672"/>
+        <c:crossAx val="2085216968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4427,7 +4012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111795672"/>
+        <c:axId val="2085216968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4472,7 +4057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111789640"/>
+        <c:crossAx val="2082103640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7957,11 +7542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111686776"/>
-        <c:axId val="2111694328"/>
+        <c:axId val="2089115016"/>
+        <c:axId val="2089122568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111686776"/>
+        <c:axId val="2089115016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8035,7 +7620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111694328"/>
+        <c:crossAx val="2089122568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8045,7 +7630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111694328"/>
+        <c:axId val="2089122568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8090,7 +7675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111686776"/>
+        <c:crossAx val="2089115016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8184,7 +7769,10 @@
   <sheetViews>
     <sheetView zoomScale="192" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customSheetViews>
+    <customSheetView guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}" scale="192"/>
+  </customSheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -8195,6 +7783,12 @@
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
+  <customSheetViews>
+    <customSheetView guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}" scale="80">
+      <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -8208,6 +7802,11 @@
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
+  <customSheetViews>
+    <customSheetView guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}" scale="85">
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -8293,6 +7892,104 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B827B3DD-572C-D443-A3E1-2D3CAFB666D0}" diskRevisions="1" revisionId="4" version="4">
+  <header guid="{7500DD4F-0E77-0743-AF25-F7D6D16B34C8}" dateTime="2015-08-26T21:42:40" maxSheetId="5" userName="Liu Xiao" r:id="rId1">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F596F98A-174E-4F4F-A93E-A7A5D090B5F9}" dateTime="2015-08-26T21:45:55" maxSheetId="6" userName="Liu Xiao" r:id="rId2" minRId="1" maxRId="2">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{466C40D0-64D1-6242-B020-DAEC0C2D5CAB}" dateTime="2015-08-26T21:46:08" maxSheetId="6" userName="Liu Xiao" r:id="rId3" minRId="3">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B827B3DD-572C-D443-A3E1-2D3CAFB666D0}" dateTime="2015-08-26T21:46:10" maxSheetId="6" userName="Liu Xiao" r:id="rId4" minRId="4">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1" numFmtId="34">
+    <oc r="M34">
+      <f>H34+I34+L34</f>
+    </oc>
+    <nc r="M34">
+      <v>11</v>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1" numFmtId="34">
+    <oc r="M41">
+      <f>H41+I41+L41</f>
+    </oc>
+    <nc r="M41">
+      <v>11</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3" sId="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>sss</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="4" sId="1">
+    <oc r="E1" t="inlineStr">
+      <is>
+        <t>sss</t>
+      </is>
+    </oc>
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>eee</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8586,7 +8283,7 @@
   <dimension ref="A1:AG498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -8617,6 +8314,9 @@
       <c r="D1" t="s">
         <v>39</v>
       </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="2" t="s">
@@ -8643,9 +8343,9 @@
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
       <c r="R4" s="25" t="s">
         <v>32</v>
       </c>
@@ -8661,11 +8361,11 @@
       <c r="M5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="47">
         <f>J7</f>
-        <v>1083792.9487665335</v>
-      </c>
-      <c r="O5" s="51">
+        <v>1067564.8286200329</v>
+      </c>
+      <c r="O5" s="34">
         <f>J8</f>
         <v>40411.597559083573</v>
       </c>
@@ -8683,24 +8383,24 @@
       <c r="J6" s="23">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="26">
         <v>0.5</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="27">
         <f t="dataTable" ref="N6:O10" dt2D="0" dtr="0" r1="C10"/>
-        <v>1100745.7829188001</v>
-      </c>
-      <c r="O6" s="54">
+        <v>1087455.1170222533</v>
+      </c>
+      <c r="O6" s="28">
         <v>48856.346825467546</v>
       </c>
-      <c r="R6" s="55">
+      <c r="R6" s="48">
         <f>J7</f>
-        <v>1083792.9487665335</v>
-      </c>
-      <c r="S6" s="56">
+        <v>1067564.8286200329</v>
+      </c>
+      <c r="S6" s="42">
         <v>0.03</v>
       </c>
-      <c r="T6" s="57">
+      <c r="T6" s="42">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="U6" s="42">
@@ -8742,55 +8442,55 @@
       <c r="G7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="49">
         <f>NPV(J6/12,M17:M496)+M16</f>
-        <v>1083792.9487665335</v>
-      </c>
-      <c r="M7" s="58">
+        <v>1067564.8286200329</v>
+      </c>
+      <c r="M7" s="26">
         <v>1</v>
       </c>
-      <c r="N7" s="59">
-        <v>1083792.9487665335</v>
-      </c>
-      <c r="O7" s="60">
+      <c r="N7" s="50">
+        <v>1067564.8286200329</v>
+      </c>
+      <c r="O7" s="28">
         <v>40411.597559083573</v>
       </c>
-      <c r="R7" s="61">
-        <v>0</v>
-      </c>
-      <c r="S7" s="62">
+      <c r="R7" s="40">
+        <v>0</v>
+      </c>
+      <c r="S7" s="35">
         <f t="dataTable" ref="S7:AC12" dt2D="1" dtr="1" r1="J6" r2="C10" ca="1"/>
-        <v>1354391.8186796003</v>
-      </c>
-      <c r="T7" s="63">
-        <v>1270801.8281417352</v>
-      </c>
-      <c r="U7" s="35">
-        <v>1194536.1420175894</v>
-      </c>
-      <c r="V7" s="64">
-        <v>1124853.2435234718</v>
-      </c>
-      <c r="W7" s="65">
-        <v>1061092.873298062</v>
-      </c>
-      <c r="X7" s="66">
-        <v>1002666.666666661</v>
-      </c>
-      <c r="Y7" s="67">
-        <v>949049.90800580976</v>
-      </c>
-      <c r="Z7" s="68">
-        <v>899774.26543266617</v>
-      </c>
-      <c r="AA7" s="69">
-        <v>854421.38612990174</v>
-      </c>
-      <c r="AB7" s="70">
-        <v>812617.24753335316</v>
-      </c>
-      <c r="AC7" s="71">
-        <v>774027.17263754411</v>
+        <v>1343820.8430517088</v>
+      </c>
+      <c r="T7" s="51">
+        <v>1260324.7345714353</v>
+      </c>
+      <c r="U7" s="52">
+        <v>1184152.0363009442</v>
+      </c>
+      <c r="V7" s="53">
+        <v>1114561.2405297724</v>
+      </c>
+      <c r="W7" s="54">
+        <v>1050892.0968723719</v>
+      </c>
+      <c r="X7" s="55">
+        <v>992556.24953345757</v>
+      </c>
+      <c r="Y7" s="56">
+        <v>939028.99167372123</v>
+      </c>
+      <c r="Z7" s="57">
+        <v>889842.00010027818</v>
+      </c>
+      <c r="AA7" s="58">
+        <v>844576.93059263204</v>
+      </c>
+      <c r="AB7" s="59">
+        <v>802859.76909137378</v>
+      </c>
+      <c r="AC7" s="60">
+        <v>764355.84700474399</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -8809,50 +8509,50 @@
         <f>NPV(J6/12,K16:K496)</f>
         <v>40411.597559083573</v>
       </c>
-      <c r="M8" s="72">
+      <c r="M8" s="26">
         <v>1.5</v>
       </c>
-      <c r="N8" s="73">
-        <v>1071536.360161531</v>
-      </c>
-      <c r="O8" s="74">
+      <c r="N8" s="61">
+        <v>1052431.9672363852</v>
+      </c>
+      <c r="O8" s="28">
         <v>34306.198503042135</v>
       </c>
-      <c r="R8" s="75">
+      <c r="R8" s="40">
         <v>0.5</v>
       </c>
-      <c r="S8" s="76">
-        <v>1279443.1542695975</v>
-      </c>
-      <c r="T8" s="77">
-        <v>1215104.6155757168</v>
-      </c>
-      <c r="U8" s="35">
-        <v>1155690.8769436106</v>
-      </c>
-      <c r="V8" s="78">
-        <v>1100745.7829188001</v>
-      </c>
-      <c r="W8" s="79">
-        <v>1049860.1648829472</v>
-      </c>
-      <c r="X8" s="80">
-        <v>1002666.6666666614</v>
-      </c>
-      <c r="Y8" s="81">
-        <v>958835.16664075339</v>
-      </c>
-      <c r="Z8" s="82">
-        <v>918068.72520139709</v>
-      </c>
-      <c r="AA8" s="83">
-        <v>880099.99525377667</v>
-      </c>
-      <c r="AB8" s="84">
-        <v>844688.04090356629</v>
-      </c>
-      <c r="AC8" s="85">
-        <v>811615.51622562774</v>
+      <c r="S8" s="62">
+        <v>1265790.3062027919</v>
+      </c>
+      <c r="T8" s="63">
+        <v>1201573.6574332367</v>
+      </c>
+      <c r="U8" s="64">
+        <v>1142280.6422295326</v>
+      </c>
+      <c r="V8" s="65">
+        <v>1087455.1170222533</v>
+      </c>
+      <c r="W8" s="66">
+        <v>1036687.9249500139</v>
+      </c>
+      <c r="X8" s="67">
+        <v>989611.72147372155</v>
+      </c>
+      <c r="Y8" s="68">
+        <v>945896.39646926953</v>
+      </c>
+      <c r="Z8" s="69">
+        <v>905245.02171411598</v>
+      </c>
+      <c r="AA8" s="70">
+        <v>867390.26137233223</v>
+      </c>
+      <c r="AB8" s="71">
+        <v>832091.19068746769</v>
+      </c>
+      <c r="AC8" s="72">
+        <v>799130.47475261567</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -8864,50 +8564,50 @@
         <v>2666.6666666666665</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="M9" s="86">
+      <c r="M9" s="26">
         <v>3</v>
       </c>
-      <c r="N9" s="87">
-        <v>1050050.2436585494</v>
-      </c>
-      <c r="O9" s="88">
+      <c r="N9" s="73">
+        <v>1022683.8114025934</v>
+      </c>
+      <c r="O9" s="28">
         <v>23603.276210151042</v>
       </c>
-      <c r="R9" s="89">
+      <c r="R9" s="40">
         <v>1</v>
       </c>
-      <c r="S9" s="90">
-        <v>1227715.828735444</v>
-      </c>
-      <c r="T9" s="91">
-        <v>1176421.5159888205</v>
-      </c>
-      <c r="U9" s="35">
-        <v>1128542.8562629374</v>
-      </c>
-      <c r="V9" s="92">
-        <v>1083792.9487665335</v>
-      </c>
-      <c r="W9" s="93">
-        <v>1041912.4446810661</v>
-      </c>
-      <c r="X9" s="94">
-        <v>1002666.6666666621</v>
-      </c>
-      <c r="Y9" s="95">
-        <v>965843.0474785571</v>
-      </c>
-      <c r="Z9" s="96">
-        <v>931248.85083371971</v>
-      </c>
-      <c r="AA9" s="97">
-        <v>898709.14206131373</v>
-      </c>
-      <c r="AB9" s="98">
-        <v>868064.97992730804</v>
-      </c>
-      <c r="AC9" s="99">
-        <v>839171.80441140535</v>
+      <c r="S9" s="74">
+        <v>1211044.1431356836</v>
+      </c>
+      <c r="T9" s="75">
+        <v>1159899.1131148366</v>
+      </c>
+      <c r="U9" s="76">
+        <v>1112168.3036639267</v>
+      </c>
+      <c r="V9" s="77">
+        <v>1067564.8286200329</v>
+      </c>
+      <c r="W9" s="78">
+        <v>1025829.3536349704</v>
+      </c>
+      <c r="X9" s="79">
+        <v>986727.21568304673</v>
+      </c>
+      <c r="Y9" s="80">
+        <v>950045.86167926621</v>
+      </c>
+      <c r="Z9" s="81">
+        <v>915592.56934770674</v>
+      </c>
+      <c r="AA9" s="82">
+        <v>883192.41787371552</v>
+      </c>
+      <c r="AB9" s="83">
+        <v>852686.47973022622</v>
+      </c>
+      <c r="AC9" s="84">
+        <v>823930.20845638134</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="13" thickBot="1">
@@ -8923,52 +8623,52 @@
       </c>
       <c r="J10" s="46">
         <f>AG16</f>
-        <v>7.9940872776567771</v>
-      </c>
-      <c r="M10" s="100">
+        <v>8.0882974973638149</v>
+      </c>
+      <c r="M10" s="29">
         <v>6</v>
       </c>
-      <c r="N10" s="101">
-        <v>1032852.5974475216</v>
-      </c>
-      <c r="O10" s="102">
+      <c r="N10" s="85">
+        <v>990608.70435710566</v>
+      </c>
+      <c r="O10" s="31">
         <v>15036.578222093736</v>
       </c>
-      <c r="R10" s="103">
+      <c r="R10" s="40">
         <v>2</v>
       </c>
-      <c r="S10" s="104">
-        <v>1164163.9139541402</v>
-      </c>
-      <c r="T10" s="105">
-        <v>1128486.1013497119</v>
-      </c>
-      <c r="U10" s="35">
-        <v>1094615.1885233982</v>
-      </c>
-      <c r="V10" s="106">
-        <v>1062428.5440707949</v>
-      </c>
-      <c r="W10" s="107">
-        <v>1031813.5477780005</v>
-      </c>
-      <c r="X10" s="108">
-        <v>1002666.6666666641</v>
-      </c>
-      <c r="Y10" s="109">
-        <v>974892.62391439395</v>
-      </c>
-      <c r="Z10" s="110">
-        <v>948403.6507190204</v>
-      </c>
-      <c r="AA10" s="111">
-        <v>923118.81228759116</v>
-      </c>
-      <c r="AB10" s="112">
-        <v>898963.40011394885</v>
-      </c>
-      <c r="AC10" s="113">
-        <v>875868.38357887883</v>
+      <c r="S10" s="86">
+        <v>1141643.5425146937</v>
+      </c>
+      <c r="T10" s="87">
+        <v>1106167.9545524337</v>
+      </c>
+      <c r="U10" s="88">
+        <v>1072497.3210004901</v>
+      </c>
+      <c r="V10" s="89">
+        <v>1040509.030363958</v>
+      </c>
+      <c r="W10" s="90">
+        <v>1010090.4821230345</v>
+      </c>
+      <c r="X10" s="91">
+        <v>981138.16278051212</v>
+      </c>
+      <c r="Y10" s="92">
+        <v>953556.81478461716</v>
+      </c>
+      <c r="Z10" s="93">
+        <v>927258.68839565909</v>
+      </c>
+      <c r="AA10" s="94">
+        <v>902162.86767739081</v>
+      </c>
+      <c r="AB10" s="95">
+        <v>878194.66277692118</v>
+      </c>
+      <c r="AC10" s="96">
+        <v>855285.06152717071</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -8982,38 +8682,38 @@
       <c r="R11" s="40">
         <v>4</v>
       </c>
-      <c r="S11" s="35">
-        <v>1106351.1370810352</v>
-      </c>
-      <c r="T11" s="35">
-        <v>1084264.136333406</v>
-      </c>
-      <c r="U11" s="35">
-        <v>1062882.551613674</v>
-      </c>
-      <c r="V11" s="114">
-        <v>1042175.152749652</v>
-      </c>
-      <c r="W11" s="115">
-        <v>1022112.4682279495</v>
-      </c>
-      <c r="X11" s="116">
-        <v>1002666.666666664</v>
-      </c>
-      <c r="Y11" s="117">
-        <v>983811.44744464476</v>
-      </c>
-      <c r="Z11" s="35">
-        <v>965521.93970133096</v>
-      </c>
-      <c r="AA11" s="35">
-        <v>947774.6089945148</v>
-      </c>
-      <c r="AB11" s="35">
-        <v>930547.17096906179</v>
-      </c>
-      <c r="AC11" s="37">
-        <v>913818.5114494072</v>
+      <c r="S11" s="97">
+        <v>1072888.3737975711</v>
+      </c>
+      <c r="T11" s="98">
+        <v>1051102.1187335567</v>
+      </c>
+      <c r="U11" s="99">
+        <v>1030018.3843244415</v>
+      </c>
+      <c r="V11" s="100">
+        <v>1009605.9700499228</v>
+      </c>
+      <c r="W11" s="101">
+        <v>989835.43372750853</v>
+      </c>
+      <c r="X11" s="102">
+        <v>970678.97298886895</v>
+      </c>
+      <c r="Y11" s="103">
+        <v>952110.3159127062</v>
+      </c>
+      <c r="Z11" s="104">
+        <v>934104.62002815923</v>
+      </c>
+      <c r="AA11" s="105">
+        <v>916638.37897609023</v>
+      </c>
+      <c r="AB11" s="106">
+        <v>899689.33618128579</v>
+      </c>
+      <c r="AC11" s="107">
+        <v>883236.40494839579</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="13" thickBot="1">
@@ -9028,38 +8728,38 @@
       <c r="R12" s="41">
         <v>6</v>
       </c>
-      <c r="S12" s="38">
-        <v>1080788.6508196972</v>
-      </c>
-      <c r="T12" s="38">
-        <v>1064440.7381190027</v>
-      </c>
-      <c r="U12" s="38">
-        <v>1048465.9018239558</v>
-      </c>
-      <c r="V12" s="118">
-        <v>1032852.5974475216</v>
-      </c>
-      <c r="W12" s="119">
-        <v>1017589.7369358806</v>
-      </c>
-      <c r="X12" s="120">
-        <v>1002666.666666664</v>
-      </c>
-      <c r="Y12" s="121">
-        <v>988073.14669324225</v>
-      </c>
-      <c r="Z12" s="38">
-        <v>973799.33115452004</v>
-      </c>
-      <c r="AA12" s="38">
-        <v>959835.74977558909</v>
-      </c>
-      <c r="AB12" s="38">
-        <v>946173.29038962664</v>
-      </c>
-      <c r="AC12" s="39">
-        <v>932803.18241673918</v>
+      <c r="S12" s="108">
+        <v>1037387.5162728752</v>
+      </c>
+      <c r="T12" s="109">
+        <v>1021429.0825609295</v>
+      </c>
+      <c r="U12" s="110">
+        <v>1005839.9806497344</v>
+      </c>
+      <c r="V12" s="111">
+        <v>990608.70435710566</v>
+      </c>
+      <c r="W12" s="112">
+        <v>975724.20351982675</v>
+      </c>
+      <c r="X12" s="113">
+        <v>961175.86199658678</v>
+      </c>
+      <c r="Y12" s="114">
+        <v>946953.47691692854</v>
+      </c>
+      <c r="Z12" s="115">
+        <v>933047.23909563955</v>
+      </c>
+      <c r="AA12" s="116">
+        <v>919447.71453794988</v>
+      </c>
+      <c r="AB12" s="117">
+        <v>906145.82696591946</v>
+      </c>
+      <c r="AC12" s="118">
+        <v>893132.84130172001</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -9120,8 +8820,8 @@
       <c r="M15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="122"/>
-      <c r="O15" s="123"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
       <c r="AD15" s="13" t="s">
         <v>34</v>
       </c>
@@ -9173,16 +8873,16 @@
       <c r="K16" s="16">
         <v>0</v>
       </c>
-      <c r="L16" s="124">
+      <c r="L16" s="19">
         <f>G16-K16</f>
         <v>2666.6666666666665</v>
       </c>
-      <c r="M16" s="125">
+      <c r="M16" s="19">
         <f>H16+I16+L16</f>
         <v>2666.6666666666665</v>
       </c>
-      <c r="N16" s="126"/>
-      <c r="O16" s="127"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
       <c r="P16" s="2" t="s">
         <v>18</v>
       </c>
@@ -9197,13 +8897,13 @@
         <f>AD16*M16</f>
         <v>2666.6666666666665</v>
       </c>
-      <c r="AF16" s="128">
+      <c r="AF16" s="45">
         <f>AE16</f>
         <v>2666.6666666666665</v>
       </c>
-      <c r="AG16" s="129">
+      <c r="AG16">
         <f>(1/12)*SUM(AF16:AF372)/SUM(AE16:AE372)</f>
-        <v>7.9940872776567771</v>
+        <v>8.0882974973638149</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -9250,16 +8950,16 @@
         <f>$C$11/12*E17</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="L17" s="130">
+      <c r="L17" s="16">
         <f>G17-K17</f>
         <v>4583.333333333333</v>
       </c>
-      <c r="M17" s="131">
+      <c r="M17" s="16">
         <f>H17+I17+L17</f>
         <v>5745.4921549788132</v>
       </c>
-      <c r="N17" s="132"/>
-      <c r="O17" s="133"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
       <c r="P17" s="2" t="s">
         <v>12</v>
       </c>
@@ -9274,7 +8974,7 @@
         <f>AD17*M17</f>
         <v>5724.0270535280833</v>
       </c>
-      <c r="AF17" s="134">
+      <c r="AF17" s="45">
         <f>AE17*B17</f>
         <v>5724.0270535280833</v>
       </c>
@@ -9324,16 +9024,16 @@
         <f t="shared" ref="K18:K81" si="9">$C$11/12*E18</f>
         <v>416.18243382431439</v>
       </c>
-      <c r="L18" s="135">
+      <c r="L18" s="19">
         <f t="shared" ref="L18:L81" si="10">G18-K18</f>
         <v>4578.0067720674579</v>
       </c>
-      <c r="M18" s="136">
+      <c r="M18" s="19">
         <f t="shared" ref="M18:M81" si="11">H18+I18+L18</f>
         <v>5911.546510618924</v>
       </c>
-      <c r="N18" s="137"/>
-      <c r="O18" s="138"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
       <c r="P18" s="2" t="s">
         <v>14</v>
       </c>
@@ -9348,7 +9048,7 @@
         <f t="shared" ref="AE18:AE81" si="13">AD18*M18</f>
         <v>5867.4580640098256</v>
       </c>
-      <c r="AF18" s="139">
+      <c r="AF18" s="45">
         <f t="shared" ref="AF18:AF81" si="14">AE18*B18</f>
         <v>11734.916128019651</v>
       </c>
@@ -9398,16 +9098,16 @@
         <f t="shared" si="9"/>
         <v>415.62679226658457</v>
       </c>
-      <c r="L19" s="140">
+      <c r="L19" s="19">
         <f t="shared" si="10"/>
         <v>4571.8947149324304</v>
       </c>
-      <c r="M19" s="141">
+      <c r="M19" s="19">
         <f t="shared" si="11"/>
         <v>6076.5015720609936</v>
       </c>
-      <c r="N19" s="142"/>
-      <c r="O19" s="143"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
       <c r="P19" s="2" t="s">
         <v>15</v>
       </c>
@@ -9422,7 +9122,7 @@
         <f t="shared" si="13"/>
         <v>6008.6504477209455</v>
       </c>
-      <c r="AF19" s="144">
+      <c r="AF19" s="45">
         <f t="shared" si="14"/>
         <v>18025.951343162837</v>
       </c>
@@ -9472,16 +9172,16 @@
         <f t="shared" si="9"/>
         <v>414.99987274278101</v>
       </c>
-      <c r="L20" s="145">
+      <c r="L20" s="19">
         <f t="shared" si="10"/>
         <v>4564.9986001705911</v>
       </c>
-      <c r="M20" s="146">
+      <c r="M20" s="19">
         <f t="shared" si="11"/>
         <v>6240.2703453462927</v>
       </c>
-      <c r="N20" s="147"/>
-      <c r="O20" s="148"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
       <c r="AB20">
         <v>197228.44510859967</v>
       </c>
@@ -9493,7 +9193,7 @@
         <f t="shared" si="13"/>
         <v>6147.5372895819119</v>
       </c>
-      <c r="AF20" s="149">
+      <c r="AF20" s="45">
         <f t="shared" si="14"/>
         <v>24590.149158327647</v>
       </c>
@@ -9543,16 +9243,16 @@
         <f t="shared" si="9"/>
         <v>414.30184284895785</v>
       </c>
-      <c r="L21" s="150">
+      <c r="L21" s="19">
         <f t="shared" si="10"/>
         <v>4557.3202713385363</v>
       </c>
-      <c r="M21" s="151">
+      <c r="M21" s="19">
         <f t="shared" si="11"/>
         <v>6402.7662674810708</v>
       </c>
-      <c r="N21" s="152"/>
-      <c r="O21" s="153"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
       <c r="AB21">
         <v>196526.87367804575</v>
       </c>
@@ -9564,7 +9264,7 @@
         <f t="shared" si="13"/>
         <v>6284.0532539071346</v>
       </c>
-      <c r="AF21" s="154">
+      <c r="AF21" s="45">
         <f t="shared" si="14"/>
         <v>31420.266269535674</v>
       </c>
@@ -9614,16 +9314,16 @@
         <f t="shared" si="9"/>
         <v>413.53290701723176</v>
       </c>
-      <c r="L22" s="155">
+      <c r="L22" s="19">
         <f t="shared" si="10"/>
         <v>4548.8619771895492</v>
       </c>
-      <c r="M22" s="156">
+      <c r="M22" s="19">
         <f t="shared" si="11"/>
         <v>6563.9032818450705</v>
       </c>
-      <c r="N22" s="157"/>
-      <c r="O22" s="158"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
       <c r="AB22">
         <v>195821.79439033908</v>
       </c>
@@ -9635,7 +9335,7 @@
         <f t="shared" si="13"/>
         <v>6418.1346389990613</v>
       </c>
-      <c r="AF22" s="159">
+      <c r="AF22" s="45">
         <f t="shared" si="14"/>
         <v>38508.807833994368</v>
       </c>
@@ -9685,16 +9385,16 @@
         <f t="shared" si="9"/>
         <v>412.69330647362528</v>
       </c>
-      <c r="L23" s="160">
+      <c r="L23" s="19">
         <f t="shared" si="10"/>
         <v>4539.626371209878</v>
       </c>
-      <c r="M23" s="161">
+      <c r="M23" s="19">
         <f t="shared" si="11"/>
         <v>6723.5959135125286</v>
       </c>
-      <c r="N23" s="162"/>
-      <c r="O23" s="163"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
       <c r="AB23">
         <v>195113.18970619387</v>
       </c>
@@ -9706,7 +9406,7 @@
         <f t="shared" si="13"/>
         <v>6549.7194301782411</v>
       </c>
-      <c r="AF23" s="164">
+      <c r="AF23" s="45">
         <f t="shared" si="14"/>
         <v>45848.036011247685</v>
       </c>
@@ -9756,16 +9456,16 @@
         <f t="shared" si="9"/>
         <v>411.78331916433251</v>
       </c>
-      <c r="L24" s="165">
+      <c r="L24" s="19">
         <f t="shared" si="10"/>
         <v>4529.6165108076575</v>
       </c>
-      <c r="M24" s="166">
+      <c r="M24" s="19">
         <f t="shared" si="11"/>
         <v>6881.7593443943642</v>
       </c>
-      <c r="N24" s="167"/>
-      <c r="O24" s="168"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
       <c r="AB24">
         <v>194401.04199862794</v>
       </c>
@@ -9777,7 +9477,7 @@
         <f t="shared" si="13"/>
         <v>6678.747351183305</v>
       </c>
-      <c r="AF24" s="169">
+      <c r="AF24" s="45">
         <f t="shared" si="14"/>
         <v>53429.97880946644</v>
       </c>
@@ -9827,16 +9527,16 @@
         <f t="shared" si="9"/>
         <v>410.80325965033808</v>
       </c>
-      <c r="L25" s="170">
+      <c r="L25" s="19">
         <f t="shared" si="10"/>
         <v>4518.8358561537189</v>
       </c>
-      <c r="M25" s="171">
+      <c r="M25" s="19">
         <f t="shared" si="11"/>
         <v>7038.3094881118068</v>
       </c>
-      <c r="N25" s="172"/>
-      <c r="O25" s="173"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
       <c r="AB25">
         <v>193685.33355252419</v>
       </c>
@@ -9848,7 +9548,7 @@
         <f t="shared" si="13"/>
         <v>6805.1599138786269</v>
       </c>
-      <c r="AF25" s="174">
+      <c r="AF25" s="45">
         <f t="shared" si="14"/>
         <v>61246.439224907641</v>
       </c>
@@ -9898,16 +9598,16 @@
         <f t="shared" si="9"/>
         <v>409.75347897035556</v>
       </c>
-      <c r="L26" s="175">
+      <c r="L26" s="19">
         <f t="shared" si="10"/>
         <v>4507.2882686739104</v>
       </c>
-      <c r="M26" s="176">
+      <c r="M26" s="19">
         <f t="shared" si="11"/>
         <v>7193.1630645120977</v>
       </c>
-      <c r="N26" s="177"/>
-      <c r="O26" s="178"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
       <c r="AB26">
         <v>192966.04656418989</v>
       </c>
@@ -9919,7 +9619,7 @@
         <f t="shared" si="13"/>
         <v>6928.900466210177</v>
       </c>
-      <c r="AF26" s="179">
+      <c r="AF26" s="45">
         <f t="shared" si="14"/>
         <v>69289.004662101768</v>
       </c>
@@ -9969,16 +9669,16 @@
         <f t="shared" si="9"/>
         <v>408.63436447208966</v>
       </c>
-      <c r="L27" s="180">
+      <c r="L27" s="19">
         <f t="shared" si="10"/>
         <v>4494.9780091929852</v>
       </c>
-      <c r="M27" s="181">
+      <c r="M27" s="19">
         <f t="shared" si="11"/>
         <v>7346.2376737324903</v>
       </c>
-      <c r="N27" s="182"/>
-      <c r="O27" s="183"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
       <c r="AB27">
         <v>192243.16314091394</v>
       </c>
@@ -9990,7 +9690,7 @@
         <f t="shared" si="13"/>
         <v>7049.914238348113</v>
       </c>
-      <c r="AF27" s="184">
+      <c r="AF27" s="45">
         <f>AE27*B27</f>
         <v>77549.056621829237</v>
       </c>
@@ -10040,16 +9740,16 @@
         <f t="shared" si="9"/>
         <v>407.44633961186486</v>
       </c>
-      <c r="L28" s="185">
+      <c r="L28" s="19">
         <f t="shared" si="10"/>
         <v>4481.9097357305136</v>
       </c>
-      <c r="M28" s="186">
+      <c r="M28" s="19">
         <f t="shared" si="11"/>
         <v>7497.4518697250824</v>
       </c>
-      <c r="N28" s="187"/>
-      <c r="O28" s="188"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
       <c r="AB28">
         <v>191516.66530052159</v>
       </c>
@@ -10061,7 +9761,7 @@
         <f t="shared" si="13"/>
         <v>7168.1483869630174</v>
       </c>
-      <c r="AF28" s="189">
+      <c r="AF28" s="45">
         <f t="shared" si="14"/>
         <v>86017.780643556209</v>
       </c>
@@ -10111,16 +9811,16 @@
         <f t="shared" si="9"/>
         <v>406.18986372270041</v>
       </c>
-      <c r="L29" s="190">
+      <c r="L29" s="19">
         <f t="shared" si="10"/>
         <v>4468.0885009497042</v>
       </c>
-      <c r="M29" s="191">
+      <c r="M29" s="19">
         <f t="shared" si="11"/>
         <v>7646.7252331497475</v>
       </c>
-      <c r="N29" s="192"/>
-      <c r="O29" s="193"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
       <c r="AB29">
         <v>190786.53497092729</v>
       </c>
@@ -10132,7 +9832,7 @@
         <f t="shared" si="13"/>
         <v>7283.5520375798242</v>
       </c>
-      <c r="AF29" s="194">
+      <c r="AF29" s="45">
         <f t="shared" si="14"/>
         <v>94686.17648853772</v>
       </c>
@@ -10182,16 +9882,16 @@
         <f t="shared" si="9"/>
         <v>404.86543175095039</v>
       </c>
-      <c r="L30" s="195">
+      <c r="L30" s="19">
         <f t="shared" si="10"/>
         <v>4453.5197492604548</v>
       </c>
-      <c r="M30" s="196">
+      <c r="M30" s="19">
         <f t="shared" si="11"/>
         <v>7793.9784435444963</v>
       </c>
-      <c r="N30" s="197"/>
-      <c r="O30" s="198"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
       <c r="AB30">
         <v>190052.75398968501</v>
       </c>
@@ -10203,7 +9903,7 @@
         <f t="shared" si="13"/>
         <v>7396.0763249576903</v>
       </c>
-      <c r="AF30" s="199">
+      <c r="AF30" s="45">
         <f t="shared" si="14"/>
         <v>103545.06854940766</v>
       </c>
@@ -10253,16 +9953,16 @@
         <f t="shared" si="9"/>
         <v>403.47357396166535</v>
       </c>
-      <c r="L31" s="200">
+      <c r="L31" s="19">
         <f t="shared" si="10"/>
         <v>4438.2093135783189</v>
       </c>
-      <c r="M31" s="201">
+      <c r="M31" s="19">
         <f t="shared" si="11"/>
         <v>7939.133350685468</v>
       </c>
-      <c r="N31" s="202"/>
-      <c r="O31" s="203"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
       <c r="AB31">
         <v>189315.30410353653</v>
       </c>
@@ -10274,7 +9974,7 @@
         <f t="shared" si="13"/>
         <v>7505.6744314488806</v>
       </c>
-      <c r="AF31" s="204">
+      <c r="AF31" s="45">
         <f t="shared" si="14"/>
         <v>112585.11647173321</v>
       </c>
@@ -10324,16 +10024,16 @@
         <f t="shared" si="9"/>
         <v>402.01485561287075</v>
       </c>
-      <c r="L32" s="205">
+      <c r="L32" s="19">
         <f t="shared" si="10"/>
         <v>4422.1634117415779</v>
       </c>
-      <c r="M32" s="206">
+      <c r="M32" s="19">
         <f t="shared" si="11"/>
         <v>8082.1130450446362</v>
       </c>
-      <c r="N32" s="207"/>
-      <c r="O32" s="208"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
       <c r="AB32">
         <v>188574.16696795731</v>
       </c>
@@ -10345,7 +10045,7 @@
         <f t="shared" si="13"/>
         <v>7612.3016232879536</v>
       </c>
-      <c r="AF32" s="209">
+      <c r="AF32" s="45">
         <f t="shared" si="14"/>
         <v>121796.82597260726</v>
       </c>
@@ -10395,16 +10095,16 @@
         <f t="shared" si="9"/>
         <v>400.4898765989945</v>
       </c>
-      <c r="L33" s="210">
+      <c r="L33" s="19">
         <f t="shared" si="10"/>
         <v>4405.3886425889386</v>
       </c>
-      <c r="M33" s="211">
+      <c r="M33" s="19">
         <f t="shared" si="11"/>
         <v>8222.8419272576903</v>
       </c>
-      <c r="N33" s="212"/>
-      <c r="O33" s="213"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
       <c r="AB33">
         <v>187829.32414670021</v>
       </c>
@@ -10416,7 +10116,7 @@
         <f t="shared" si="13"/>
         <v>7715.9152847686964</v>
       </c>
-      <c r="AF33" s="214">
+      <c r="AF33" s="45">
         <f t="shared" si="14"/>
         <v>131170.55984106785</v>
       </c>
@@ -10466,16 +10166,15 @@
         <f t="shared" si="9"/>
         <v>398.89927106371584</v>
       </c>
-      <c r="L34" s="215">
+      <c r="L34" s="19">
         <f t="shared" si="10"/>
         <v>4387.8919817008737</v>
       </c>
-      <c r="M34" s="216">
-        <f t="shared" si="11"/>
-        <v>8361.2457765136496</v>
-      </c>
-      <c r="N34" s="217"/>
-      <c r="O34" s="218"/>
+      <c r="M34" s="119">
+        <v>11</v>
+      </c>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
       <c r="AB34">
         <v>187080.7571113368</v>
       </c>
@@ -10483,13 +10182,13 @@
         <f t="shared" si="12"/>
         <v>0.93484573461809506</v>
       </c>
-      <c r="AE34" s="45">
+      <c r="AE34" s="120">
         <f t="shared" si="13"/>
-        <v>7816.4749502673476</v>
-      </c>
-      <c r="AF34" s="219">
+        <v>10.283303080799046</v>
+      </c>
+      <c r="AF34" s="121">
         <f t="shared" si="14"/>
-        <v>140696.54910481226</v>
+        <v>185.09945545438282</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -10537,16 +10236,16 @@
         <f t="shared" si="9"/>
         <v>397.24370698254381</v>
       </c>
-      <c r="L35" s="220">
+      <c r="L35" s="19">
         <f t="shared" si="10"/>
         <v>4369.6807768079825</v>
       </c>
-      <c r="M35" s="221">
+      <c r="M35" s="19">
         <f t="shared" si="11"/>
         <v>8497.2518177804741</v>
       </c>
-      <c r="N35" s="222"/>
-      <c r="O35" s="223"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
       <c r="AB35">
         <v>186328.44724079658</v>
       </c>
@@ -10558,7 +10257,7 @@
         <f t="shared" si="13"/>
         <v>7913.94233407515</v>
       </c>
-      <c r="AF35" s="224">
+      <c r="AF35" s="45">
         <f t="shared" si="14"/>
         <v>150364.90434742786</v>
       </c>
@@ -10608,16 +10307,16 @@
         <f t="shared" si="9"/>
         <v>395.52388571547198</v>
       </c>
-      <c r="L36" s="225">
+      <c r="L36" s="19">
         <f t="shared" si="10"/>
         <v>4350.7627428701917</v>
       </c>
-      <c r="M36" s="226">
+      <c r="M36" s="19">
         <f t="shared" si="11"/>
         <v>8630.7887877785506</v>
       </c>
-      <c r="N36" s="227"/>
-      <c r="O36" s="228"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
       <c r="AB36">
         <v>185572.37582090366</v>
       </c>
@@ -10629,7 +10328,7 @@
         <f t="shared" si="13"/>
         <v>8008.2813580028414</v>
       </c>
-      <c r="AF36" s="229">
+      <c r="AF36" s="45">
         <f t="shared" si="14"/>
         <v>160165.62716005684</v>
       </c>
@@ -10679,16 +10378,16 @@
         <f t="shared" si="9"/>
         <v>393.74054153009348</v>
       </c>
-      <c r="L37" s="230">
+      <c r="L37" s="19">
         <f t="shared" si="10"/>
         <v>4331.1459568310283</v>
       </c>
-      <c r="M37" s="231">
+      <c r="M37" s="19">
         <f t="shared" si="11"/>
         <v>8761.7869996195368</v>
       </c>
-      <c r="N37" s="232"/>
-      <c r="O37" s="233"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
       <c r="AB37">
         <v>184812.52404391128</v>
       </c>
@@ -10700,7 +10399,7 @@
         <f t="shared" si="13"/>
         <v>8099.45817672673</v>
       </c>
-      <c r="AF37" s="234">
+      <c r="AF37" s="45">
         <f t="shared" si="14"/>
         <v>170088.62171126134</v>
       </c>
@@ -10750,16 +10449,16 @@
         <f t="shared" si="9"/>
         <v>391.89444109559827</v>
       </c>
-      <c r="L38" s="235">
+      <c r="L38" s="19">
         <f t="shared" si="10"/>
         <v>4310.8388520515809</v>
       </c>
-      <c r="M38" s="236">
+      <c r="M38" s="19">
         <f t="shared" si="11"/>
         <v>8890.1784060258869</v>
       </c>
-      <c r="N38" s="237"/>
-      <c r="O38" s="238"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
       <c r="AB38">
         <v>184048.87300803393</v>
       </c>
@@ -10771,7 +10470,7 @@
         <f t="shared" si="13"/>
         <v>8187.4412008457148</v>
       </c>
-      <c r="AF38" s="239">
+      <c r="AF38" s="45">
         <f t="shared" si="14"/>
         <v>180123.70641860573</v>
       </c>
@@ -10821,16 +10520,16 @@
         <f t="shared" si="9"/>
         <v>389.986382948109</v>
       </c>
-      <c r="L39" s="240">
+      <c r="L39" s="19">
         <f t="shared" si="10"/>
         <v>4289.8502124291981</v>
       </c>
-      <c r="M39" s="241">
+      <c r="M39" s="19">
         <f t="shared" si="11"/>
         <v>9015.8966610507196</v>
       </c>
-      <c r="N39" s="242"/>
-      <c r="O39" s="243"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
       <c r="AB39">
         <v>183281.40371697719</v>
       </c>
@@ -10842,7 +10541,7 @@
         <f t="shared" si="13"/>
         <v>8272.2011176241813</v>
       </c>
-      <c r="AF39" s="244">
+      <c r="AF39" s="45">
         <f>AE39*B39</f>
         <v>190260.62570535616</v>
       </c>
@@ -10892,16 +10591,16 @@
         <f t="shared" si="9"/>
         <v>388.01719692785002</v>
       </c>
-      <c r="L40" s="245">
+      <c r="L40" s="19">
         <f t="shared" si="10"/>
         <v>4268.1891662063499</v>
       </c>
-      <c r="M40" s="246">
+      <c r="M40" s="19">
         <f t="shared" si="11"/>
         <v>9138.8771802163665</v>
       </c>
-      <c r="N40" s="247"/>
-      <c r="O40" s="248"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
       <c r="AB40">
         <v>182510.09707946517</v>
       </c>
@@ -10913,7 +10612,7 @@
         <f t="shared" si="13"/>
         <v>8353.7109093962026</v>
       </c>
-      <c r="AF40" s="249">
+      <c r="AF40" s="45">
         <f t="shared" si="14"/>
         <v>200489.06182550886</v>
       </c>
@@ -10963,16 +10662,15 @@
         <f t="shared" si="9"/>
         <v>385.98774358867917</v>
       </c>
-      <c r="L41" s="250">
+      <c r="L41" s="19">
         <f t="shared" si="10"/>
         <v>4245.8651794754705</v>
       </c>
-      <c r="M41" s="251">
-        <f t="shared" si="11"/>
-        <v>9259.057198994622</v>
-      </c>
-      <c r="N41" s="252"/>
-      <c r="O41" s="253"/>
+      <c r="M41" s="122">
+        <v>11</v>
+      </c>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
       <c r="AB41">
         <v>181734.93390876558</v>
       </c>
@@ -10980,13 +10678,13 @@
         <f t="shared" si="12"/>
         <v>0.91067002702258382</v>
       </c>
-      <c r="AE41" s="45">
+      <c r="AE41" s="123">
         <f t="shared" si="13"/>
-        <v>8431.9458696120819</v>
-      </c>
-      <c r="AF41" s="254">
+        <v>10.017370297248423</v>
+      </c>
+      <c r="AF41" s="124">
         <f t="shared" si="14"/>
-        <v>210798.64674030204</v>
+        <v>250.43425743121057</v>
       </c>
     </row>
     <row r="42" spans="1:32">
@@ -11034,16 +10732,16 @@
         <f t="shared" si="9"/>
         <v>383.89891358054621</v>
       </c>
-      <c r="L42" s="255">
+      <c r="L42" s="19">
         <f t="shared" si="10"/>
         <v>4222.8880493860079</v>
       </c>
-      <c r="M42" s="256">
+      <c r="M42" s="19">
         <f t="shared" si="11"/>
         <v>9376.3758295516309</v>
       </c>
-      <c r="N42" s="257"/>
-      <c r="O42" s="258"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
       <c r="AB42">
         <v>180955.89492221252</v>
       </c>
@@ -11055,7 +10753,7 @@
         <f t="shared" si="13"/>
         <v>8506.8836165097728</v>
       </c>
-      <c r="AF42" s="259">
+      <c r="AF42" s="45">
         <f t="shared" si="14"/>
         <v>221178.97402925408</v>
       </c>
@@ -11105,16 +10803,16 @@
         <f t="shared" si="9"/>
         <v>381.75162700547719</v>
       </c>
-      <c r="L43" s="260">
+      <c r="L43" s="19">
         <f t="shared" si="10"/>
         <v>4199.2678970602483</v>
       </c>
-      <c r="M43" s="261">
+      <c r="M43" s="19">
         <f t="shared" si="11"/>
         <v>9490.7741156833581</v>
       </c>
-      <c r="N43" s="262"/>
-      <c r="O43" s="263"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
       <c r="AB43">
         <v>180172.96074072667</v>
       </c>
@@ -11126,7 +10824,7 @@
         <f t="shared" si="13"/>
         <v>8578.5041043976526</v>
       </c>
-      <c r="AF43" s="264">
+      <c r="AF43" s="45">
         <f t="shared" si="14"/>
         <v>231619.6108187366</v>
       </c>
@@ -11176,16 +10874,16 @@
         <f t="shared" si="9"/>
         <v>379.54683274771753</v>
       </c>
-      <c r="L44" s="265">
+      <c r="L44" s="19">
         <f t="shared" si="10"/>
         <v>4175.0151602248925</v>
       </c>
-      <c r="M44" s="266">
+      <c r="M44" s="19">
         <f t="shared" si="11"/>
         <v>9602.1950858701384</v>
       </c>
-      <c r="N44" s="267"/>
-      <c r="O44" s="268"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
       <c r="AB44">
         <v>179386.1118883334</v>
       </c>
@@ -11197,7 +10895,7 @@
         <f t="shared" si="13"/>
         <v>8646.7896325387501</v>
       </c>
-      <c r="AF44" s="269">
+      <c r="AF44" s="45">
         <f t="shared" si="14"/>
         <v>242110.10971108501</v>
       </c>
@@ -11247,16 +10945,16 @@
         <f t="shared" si="9"/>
         <v>377.28550777869867</v>
       </c>
-      <c r="L45" s="270">
+      <c r="L45" s="19">
         <f t="shared" si="10"/>
         <v>4150.1405855656849</v>
       </c>
-      <c r="M45" s="271">
+      <c r="M45" s="19">
         <f t="shared" si="11"/>
         <v>9710.5838043784242</v>
       </c>
-      <c r="N45" s="272"/>
-      <c r="O45" s="273"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
       <c r="AB45">
         <v>178595.32879167816</v>
       </c>
@@ -11268,7 +10966,7 @@
         <f t="shared" si="13"/>
         <v>8711.7248516273612</v>
       </c>
-      <c r="AF45" s="274">
+      <c r="AF45" s="45">
         <f t="shared" si="14"/>
         <v>252640.02069719348</v>
       </c>
@@ -11318,16 +11016,16 @@
         <f t="shared" si="9"/>
         <v>374.9686564375267</v>
       </c>
-      <c r="L46" s="275">
+      <c r="L46" s="19">
         <f t="shared" si="10"/>
         <v>4124.6552208127932</v>
       </c>
-      <c r="M46" s="276">
+      <c r="M46" s="19">
         <f t="shared" si="11"/>
         <v>9815.8874203457453</v>
       </c>
-      <c r="N46" s="277"/>
-      <c r="O46" s="278"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
       <c r="AB46">
         <v>177800.59177953965</v>
       </c>
@@ -11339,7 +11037,7 @@
         <f t="shared" si="13"/>
         <v>8773.2967678571113</v>
       </c>
-      <c r="AF46" s="279">
+      <c r="AF46" s="45">
         <f t="shared" si="14"/>
         <v>263198.90303571336</v>
       </c>
@@ -11389,16 +11087,16 @@
         <f t="shared" si="9"/>
         <v>372.59730968772124</v>
       </c>
-      <c r="L47" s="280">
+      <c r="L47" s="19">
         <f t="shared" si="10"/>
         <v>4098.5704065649334</v>
       </c>
-      <c r="M47" s="281">
+      <c r="M47" s="19">
         <f t="shared" si="11"/>
         <v>9760.3531837153532</v>
       </c>
-      <c r="N47" s="282"/>
-      <c r="O47" s="283"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
       <c r="AB47">
         <v>177001.88108234043</v>
       </c>
@@ -11410,7 +11108,7 @@
         <f t="shared" si="13"/>
         <v>8691.069567624043</v>
       </c>
-      <c r="AF47" s="284">
+      <c r="AF47" s="45">
         <f t="shared" si="14"/>
         <v>269423.15659634536</v>
       </c>
@@ -11460,16 +11158,16 @@
         <f t="shared" si="9"/>
         <v>370.23823353057526</v>
       </c>
-      <c r="L48" s="285">
+      <c r="L48" s="19">
         <f t="shared" si="10"/>
         <v>4072.6205688363275</v>
       </c>
-      <c r="M48" s="286">
+      <c r="M48" s="19">
         <f t="shared" si="11"/>
         <v>9705.105412621444</v>
       </c>
-      <c r="N48" s="287"/>
-      <c r="O48" s="288"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
       <c r="AB48">
         <v>176199.17683165523</v>
       </c>
@@ -11481,7 +11179,7 @@
         <f t="shared" si="13"/>
         <v>8609.5884422054369</v>
       </c>
-      <c r="AF48" s="289">
+      <c r="AF48" s="45">
         <f t="shared" si="14"/>
         <v>275506.83015057398</v>
       </c>
@@ -11531,16 +11229,16 @@
         <f t="shared" si="9"/>
         <v>367.89136484566478</v>
       </c>
-      <c r="L49" s="290">
+      <c r="L49" s="19">
         <f t="shared" si="10"/>
         <v>4046.8050133023125</v>
       </c>
-      <c r="M49" s="291">
+      <c r="M49" s="19">
         <f t="shared" si="11"/>
         <v>9650.1426336242839</v>
       </c>
-      <c r="N49" s="292"/>
-      <c r="O49" s="293"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
       <c r="AB49">
         <v>175392.45905971661</v>
       </c>
@@ -11552,7 +11250,7 @@
         <f t="shared" si="13"/>
         <v>8528.8467129834826</v>
       </c>
-      <c r="AF49" s="294">
+      <c r="AF49" s="45">
         <f t="shared" si="14"/>
         <v>281451.94152845495</v>
       </c>
@@ -11602,16 +11300,16 @@
         <f t="shared" si="9"/>
         <v>365.55664083719728</v>
       </c>
-      <c r="L50" s="295">
+      <c r="L50" s="19">
         <f t="shared" si="10"/>
         <v>4021.1230492091695</v>
       </c>
-      <c r="M50" s="296">
+      <c r="M50" s="19">
         <f t="shared" si="11"/>
         <v>9595.4633808620947</v>
       </c>
-      <c r="N50" s="297"/>
-      <c r="O50" s="298"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
       <c r="AB50">
         <v>174581.7076989183</v>
       </c>
@@ -11623,7 +11321,7 @@
         <f t="shared" si="13"/>
         <v>8448.8377607791426</v>
       </c>
-      <c r="AF50" s="299">
+      <c r="AF50" s="45">
         <f t="shared" si="14"/>
         <v>287260.48386649083</v>
       </c>
@@ -11673,16 +11371,16 @@
         <f t="shared" si="9"/>
         <v>363.2339990323419</v>
       </c>
-      <c r="L51" s="300">
+      <c r="L51" s="19">
         <f t="shared" si="10"/>
         <v>3995.5739893557611</v>
       </c>
-      <c r="M51" s="301">
+      <c r="M51" s="19">
         <f t="shared" si="11"/>
         <v>9541.0661960120597</v>
       </c>
-      <c r="N51" s="302"/>
-      <c r="O51" s="303"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
       <c r="AB51">
         <v>173766.90258131598</v>
       </c>
@@ -11694,7 +11392,7 @@
         <f t="shared" si="13"/>
         <v>8369.5550253245019</v>
       </c>
-      <c r="AF51" s="304">
+      <c r="AF51" s="45">
         <f t="shared" si="14"/>
         <v>292934.42588635755</v>
       </c>
@@ -11744,16 +11442,16 @@
         <f t="shared" si="9"/>
         <v>360.92337727956846</v>
       </c>
-      <c r="L52" s="305">
+      <c r="L52" s="19">
         <f t="shared" si="10"/>
         <v>3970.157150075253</v>
       </c>
-      <c r="M52" s="306">
+      <c r="M52" s="19">
         <f t="shared" si="11"/>
         <v>9486.9496282515665</v>
       </c>
-      <c r="N52" s="307"/>
-      <c r="O52" s="308"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
       <c r="AB52">
         <v>172948.02343812567</v>
       </c>
@@ -11765,7 +11463,7 @@
         <f t="shared" si="13"/>
         <v>8290.9920047397791</v>
       </c>
-      <c r="AF52" s="309">
+      <c r="AF52" s="45">
         <f t="shared" si="14"/>
         <v>298475.71217063203</v>
       </c>
@@ -11815,16 +11513,16 @@
         <f t="shared" si="9"/>
         <v>358.62471374699498</v>
       </c>
-      <c r="L53" s="310">
+      <c r="L53" s="19">
         <f t="shared" si="10"/>
         <v>3944.8718512169448</v>
       </c>
-      <c r="M53" s="311">
+      <c r="M53" s="19">
         <f t="shared" si="11"/>
         <v>9433.1122342196177</v>
       </c>
-      <c r="N53" s="312"/>
-      <c r="O53" s="313"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
       <c r="AB53">
         <v>172125.04989921939</v>
       </c>
@@ -11836,7 +11534,7 @@
         <f t="shared" si="13"/>
         <v>8213.1422550149819</v>
       </c>
-      <c r="AF53" s="314">
+      <c r="AF53" s="45">
         <f t="shared" si="14"/>
         <v>303886.26343555434</v>
       </c>
@@ -11886,16 +11584,16 @@
         <f t="shared" si="9"/>
         <v>356.33794692074389</v>
       </c>
-      <c r="L54" s="315">
+      <c r="L54" s="19">
         <f t="shared" si="10"/>
         <v>3919.7174161281828</v>
       </c>
-      <c r="M54" s="316">
+      <c r="M54" s="19">
         <f t="shared" si="11"/>
         <v>9379.552577978473</v>
       </c>
-      <c r="N54" s="317"/>
-      <c r="O54" s="318"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
       <c r="AB54">
         <v>171297.96149261857</v>
       </c>
@@ -11907,7 +11605,7 @@
         <f t="shared" si="13"/>
         <v>8135.999389496179</v>
       </c>
-      <c r="AF54" s="319">
+      <c r="AF54" s="45">
         <f t="shared" si="14"/>
         <v>309167.97680085478</v>
       </c>
@@ -11957,16 +11655,16 @@
         <f t="shared" si="9"/>
         <v>354.06301560330627</v>
       </c>
-      <c r="L55" s="320">
+      <c r="L55" s="19">
         <f t="shared" si="10"/>
         <v>3894.6931716363692</v>
       </c>
-      <c r="M55" s="321">
+      <c r="M55" s="19">
         <f t="shared" si="11"/>
         <v>9326.269230975453</v>
       </c>
-      <c r="N55" s="322"/>
-      <c r="O55" s="323"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
       <c r="AB55">
         <v>170466.73764398476</v>
       </c>
@@ -11978,7 +11676,7 @@
         <f t="shared" si="13"/>
         <v>8059.5570783762769</v>
       </c>
-      <c r="AF55" s="324">
+      <c r="AF55" s="45">
         <f t="shared" si="14"/>
         <v>314322.72605667479</v>
       </c>
@@ -12028,16 +11726,16 @@
         <f t="shared" si="9"/>
         <v>351.79985891191501</v>
       </c>
-      <c r="L56" s="325">
+      <c r="L56" s="19">
         <f t="shared" si="10"/>
         <v>3869.7984480310643</v>
       </c>
-      <c r="M56" s="326">
+      <c r="M56" s="19">
         <f t="shared" si="11"/>
         <v>9273.2607720049782</v>
       </c>
-      <c r="N56" s="327"/>
-      <c r="O56" s="328"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
       <c r="AB56">
         <v>169631.35767610779</v>
       </c>
@@ -12049,7 +11747,7 @@
         <f t="shared" si="13"/>
         <v>7983.8090481903773</v>
       </c>
-      <c r="AF56" s="329">
+      <c r="AF56" s="45">
         <f t="shared" si="14"/>
         <v>319352.36192761507</v>
       </c>
@@ -12099,16 +11797,16 @@
         <f t="shared" si="9"/>
         <v>349.54841627692588</v>
       </c>
-      <c r="L57" s="330">
+      <c r="L57" s="19">
         <f t="shared" si="10"/>
         <v>3845.0325790461843</v>
       </c>
-      <c r="M57" s="331">
+      <c r="M57" s="19">
         <f t="shared" si="11"/>
         <v>9220.5257871707618</v>
       </c>
-      <c r="N57" s="332"/>
-      <c r="O57" s="333"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
       <c r="AB57">
         <v>168791.80080839142</v>
       </c>
@@ -12120,7 +11818,7 @@
         <f t="shared" si="13"/>
         <v>7908.7490813155509</v>
       </c>
-      <c r="AF57" s="334">
+      <c r="AF57" s="45">
         <f t="shared" si="14"/>
         <v>324258.71233393758</v>
       </c>
@@ -12170,16 +11868,16 @@
         <f t="shared" si="9"/>
         <v>347.30862744020732</v>
       </c>
-      <c r="L58" s="335">
+      <c r="L58" s="19">
         <f t="shared" si="10"/>
         <v>3820.3949018422804</v>
       </c>
-      <c r="M58" s="336">
+      <c r="M58" s="19">
         <f t="shared" si="11"/>
         <v>9168.062869848236</v>
       </c>
-      <c r="N58" s="337"/>
-      <c r="O58" s="338"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
       <c r="AB58">
         <v>167948.04615633647</v>
       </c>
@@ -12191,7 +11889,7 @@
         <f t="shared" si="13"/>
         <v>7834.3710154750906</v>
       </c>
-      <c r="AF58" s="339">
+      <c r="AF58" s="45">
         <f t="shared" si="14"/>
         <v>329043.58264995378</v>
       </c>
@@ -12241,16 +11939,16 @@
         <f t="shared" si="9"/>
         <v>345.08043245353815</v>
       </c>
-      <c r="L59" s="340">
+      <c r="L59" s="19">
         <f t="shared" si="10"/>
         <v>3795.8847569889194</v>
       </c>
-      <c r="M59" s="341">
+      <c r="M59" s="19">
         <f t="shared" si="11"/>
         <v>9115.8706206471397</v>
       </c>
-      <c r="N59" s="342"/>
-      <c r="O59" s="343"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
       <c r="AB59">
         <v>167100.07273102124</v>
       </c>
@@ -12262,7 +11960,7 @@
         <f t="shared" si="13"/>
         <v>7760.6687432471308</v>
       </c>
-      <c r="AF59" s="344">
+      <c r="AF59" s="45">
         <f t="shared" si="14"/>
         <v>333708.75595962664</v>
       </c>
@@ -12312,16 +12010,16 @@
         <f t="shared" si="9"/>
         <v>342.86377167701391</v>
       </c>
-      <c r="L60" s="345">
+      <c r="L60" s="19">
         <f t="shared" si="10"/>
         <v>3771.5014884471525</v>
       </c>
-      <c r="M60" s="346">
+      <c r="M60" s="19">
         <f t="shared" si="11"/>
         <v>9063.9476473743252</v>
       </c>
-      <c r="N60" s="347"/>
-      <c r="O60" s="348"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
       <c r="AB60">
         <v>166247.85943857944</v>
       </c>
@@ -12333,7 +12031,7 @@
         <f t="shared" si="13"/>
         <v>7687.6362115776474</v>
       </c>
-      <c r="AF60" s="349">
+      <c r="AF60" s="45">
         <f t="shared" si="14"/>
         <v>338255.99330941646</v>
       </c>
@@ -12383,16 +12081,16 @@
         <f t="shared" si="9"/>
         <v>340.65858577746093</v>
       </c>
-      <c r="L61" s="350">
+      <c r="L61" s="19">
         <f t="shared" si="10"/>
         <v>3747.2444435520697</v>
       </c>
-      <c r="M61" s="351">
+      <c r="M61" s="19">
         <f t="shared" si="11"/>
         <v>9012.2925649967256</v>
       </c>
-      <c r="N61" s="352"/>
-      <c r="O61" s="353"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
       <c r="AB61">
         <v>165391.38507967544</v>
       </c>
@@ -12404,7 +12102,7 @@
         <f t="shared" si="13"/>
         <v>7615.2674212977499</v>
       </c>
-      <c r="AF61" s="354">
+      <c r="AF61" s="45">
         <f t="shared" si="14"/>
         <v>342687.03395839874</v>
       </c>
@@ -12454,16 +12152,16 @@
         <f t="shared" si="9"/>
         <v>338.46481572685894</v>
       </c>
-      <c r="L62" s="355">
+      <c r="L62" s="19">
         <f t="shared" si="10"/>
         <v>3723.1129729954487</v>
       </c>
-      <c r="M62" s="356">
+      <c r="M62" s="19">
         <f t="shared" si="11"/>
         <v>8960.903995604549</v>
       </c>
-      <c r="N62" s="357"/>
-      <c r="O62" s="358"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
       <c r="AB62">
         <v>164530.62834897693</v>
       </c>
@@ -12475,7 +12173,7 @@
         <f t="shared" si="13"/>
         <v>7543.5564266452884</v>
       </c>
-      <c r="AF62" s="359">
+      <c r="AF62" s="45">
         <f t="shared" si="14"/>
         <v>347003.59562568326</v>
       </c>
@@ -12525,16 +12223,16 @@
         <f t="shared" si="9"/>
         <v>336.28240280077182</v>
       </c>
-      <c r="L63" s="360">
+      <c r="L63" s="19">
         <f t="shared" si="10"/>
         <v>3699.1064308084901</v>
       </c>
-      <c r="M63" s="361">
+      <c r="M63" s="19">
         <f t="shared" si="11"/>
         <v>8909.7805683746319</v>
       </c>
-      <c r="N63" s="362"/>
-      <c r="O63" s="363"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
       <c r="AB63">
         <v>163665.5678346249</v>
       </c>
@@ -12546,7 +12244,7 @@
         <f t="shared" si="13"/>
         <v>7472.4973347906653</v>
       </c>
-      <c r="AF63" s="364">
+      <c r="AF63" s="45">
         <f t="shared" si="14"/>
         <v>351207.37473516125</v>
       </c>
@@ -12596,16 +12294,16 @@
         <f t="shared" si="9"/>
         <v>334.11128857678591</v>
       </c>
-      <c r="L64" s="365">
+      <c r="L64" s="19">
         <f t="shared" si="10"/>
         <v>3675.2241743446448</v>
       </c>
-      <c r="M64" s="366">
+      <c r="M64" s="19">
         <f t="shared" si="11"/>
         <v>8858.9209195340009</v>
       </c>
-      <c r="N64" s="367"/>
-      <c r="O64" s="368"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
       <c r="AB64">
         <v>162796.18201770113</v>
       </c>
@@ -12617,7 +12315,7 @@
         <f t="shared" si="13"/>
         <v>7402.0843053668868</v>
       </c>
-      <c r="AF64" s="369">
+      <c r="AF64" s="45">
         <f t="shared" si="14"/>
         <v>355300.04665761057</v>
       </c>
@@ -12667,16 +12365,16 @@
         <f t="shared" si="9"/>
         <v>331.95141493295699</v>
       </c>
-      <c r="L65" s="370">
+      <c r="L65" s="19">
         <f t="shared" si="10"/>
         <v>3651.4655642625266</v>
       </c>
-      <c r="M65" s="371">
+      <c r="M65" s="19">
         <f t="shared" si="11"/>
         <v>8808.3236923236036</v>
       </c>
-      <c r="N65" s="372"/>
-      <c r="O65" s="373"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
       <c r="AB65">
         <v>161922.44927169272</v>
       </c>
@@ -12688,7 +12386,7 @@
         <f t="shared" si="13"/>
         <v>7332.3115500037611</v>
       </c>
-      <c r="AF65" s="374">
+      <c r="AF65" s="45">
         <f t="shared" si="14"/>
         <v>359283.26595018432</v>
       </c>
@@ -12738,16 +12436,16 @@
         <f t="shared" si="9"/>
         <v>329.80272404626487</v>
       </c>
-      <c r="L66" s="375">
+      <c r="L66" s="19">
         <f t="shared" si="10"/>
         <v>3627.8299645089137</v>
       </c>
-      <c r="M66" s="376">
+      <c r="M66" s="19">
         <f t="shared" si="11"/>
         <v>8757.9875369622441</v>
       </c>
-      <c r="N66" s="377"/>
-      <c r="O66" s="378"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
       <c r="AB66">
         <v>161044.34786195427</v>
       </c>
@@ -12759,7 +12457,7 @@
         <f t="shared" si="13"/>
         <v>7263.17333186623</v>
       </c>
-      <c r="AF66" s="379">
+      <c r="AF66" s="45">
         <f t="shared" si="14"/>
         <v>363158.66659331147</v>
       </c>
@@ -12809,16 +12507,16 @@
         <f t="shared" si="9"/>
         <v>327.66515839107598</v>
       </c>
-      <c r="L67" s="380">
+      <c r="L67" s="19">
         <f t="shared" si="10"/>
         <v>3604.3167423018353</v>
       </c>
-      <c r="M67" s="381">
+      <c r="M67" s="19">
         <f t="shared" si="11"/>
         <v>8707.9111106106884</v>
       </c>
-      <c r="N67" s="382"/>
-      <c r="O67" s="383"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
       <c r="AB67">
         <v>160161.85594516713</v>
       </c>
@@ -12830,7 +12528,7 @@
         <f t="shared" si="13"/>
         <v>7194.6639651967907</v>
       </c>
-      <c r="AF67" s="384">
+      <c r="AF67" s="45">
         <f t="shared" si="14"/>
         <v>366927.86222503631</v>
       </c>
@@ -12880,16 +12578,16 @@
         <f t="shared" si="9"/>
         <v>325.53866073761395</v>
       </c>
-      <c r="L68" s="385">
+      <c r="L68" s="19">
         <f t="shared" si="10"/>
         <v>3580.9252681137532</v>
       </c>
-      <c r="M68" s="386">
+      <c r="M68" s="19">
         <f t="shared" si="11"/>
         <v>8658.0930773359705</v>
       </c>
-      <c r="N68" s="387"/>
-      <c r="O68" s="388"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
       <c r="AB68">
         <v>159274.95156879607</v>
       </c>
@@ -12901,7 +12599,7 @@
         <f t="shared" si="13"/>
         <v>7126.777814862</v>
       </c>
-      <c r="AF68" s="389">
+      <c r="AF68" s="45">
         <f t="shared" si="14"/>
         <v>370592.44637282402</v>
       </c>
@@ -12951,16 +12649,16 @@
         <f t="shared" si="9"/>
         <v>323.423174150438</v>
       </c>
-      <c r="L69" s="390">
+      <c r="L69" s="19">
         <f t="shared" si="10"/>
         <v>3557.6549156548176</v>
       </c>
-      <c r="M69" s="391">
+      <c r="M69" s="19">
         <f t="shared" si="11"/>
         <v>8608.5321080758677</v>
       </c>
-      <c r="N69" s="392"/>
-      <c r="O69" s="393"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
       <c r="AB69">
         <v>158383.61267054314</v>
       </c>
@@ -12972,7 +12670,7 @@
         <f t="shared" si="13"/>
         <v>7059.5092959029616</v>
       </c>
-      <c r="AF69" s="394">
+      <c r="AF69" s="45">
         <f t="shared" si="14"/>
         <v>374153.99268285697</v>
       </c>
@@ -13022,16 +12720,16 @@
         <f t="shared" si="9"/>
         <v>321.31864198692921</v>
       </c>
-      <c r="L70" s="395">
+      <c r="L70" s="19">
         <f t="shared" si="10"/>
         <v>3534.5050618562209</v>
       </c>
-      <c r="M70" s="396">
+      <c r="M70" s="19">
         <f t="shared" si="11"/>
         <v>8559.2268806035645</v>
       </c>
-      <c r="N70" s="397"/>
-      <c r="O70" s="398"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
       <c r="AB70">
         <v>157487.81707779894</v>
       </c>
@@ -13043,7 +12741,7 @@
         <f t="shared" si="13"/>
         <v>6992.8528730898397</v>
       </c>
-      <c r="AF70" s="399">
+      <c r="AF70" s="45">
         <f t="shared" si="14"/>
         <v>377614.05514685134</v>
       </c>
@@ -13093,16 +12791,16 @@
         <f t="shared" si="9"/>
         <v>319.22500789578447</v>
       </c>
-      <c r="L71" s="400">
+      <c r="L71" s="19">
         <f t="shared" si="10"/>
         <v>3511.4750868536289</v>
       </c>
-      <c r="M71" s="401">
+      <c r="M71" s="19">
         <f t="shared" si="11"/>
         <v>8510.1760794925049</v>
       </c>
-      <c r="N71" s="402"/>
-      <c r="O71" s="403"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
       <c r="AB71">
         <v>156587.54250709104</v>
       </c>
@@ -13114,7 +12812,7 @@
         <f t="shared" si="13"/>
         <v>6926.8030604802898</v>
       </c>
-      <c r="AF71" s="404">
+      <c r="AF71" s="45">
         <f t="shared" si="14"/>
         <v>380974.16832641594</v>
       </c>
@@ -13164,16 +12862,16 @@
         <f t="shared" si="9"/>
         <v>317.14221581551828</v>
       </c>
-      <c r="L72" s="405">
+      <c r="L72" s="19">
         <f t="shared" si="10"/>
         <v>3488.5643739707011</v>
       </c>
-      <c r="M72" s="406">
+      <c r="M72" s="19">
         <f t="shared" si="11"/>
         <v>8461.3783960814035</v>
       </c>
-      <c r="N72" s="407"/>
-      <c r="O72" s="408"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
       <c r="AB72">
         <v>155682.76656352959</v>
       </c>
@@ -13185,7 +12883,7 @@
         <f t="shared" si="13"/>
         <v>6861.3544209818201</v>
       </c>
-      <c r="AF72" s="409">
+      <c r="AF72" s="45">
         <f t="shared" si="14"/>
         <v>384235.84757498192</v>
       </c>
@@ -13235,16 +12933,16 @@
         <f t="shared" si="9"/>
         <v>315.07020997297218</v>
       </c>
-      <c r="L73" s="410">
+      <c r="L73" s="19">
         <f t="shared" si="10"/>
         <v>3465.7723097026937</v>
       </c>
-      <c r="M73" s="411">
+      <c r="M73" s="19">
         <f t="shared" si="11"/>
         <v>8412.8325284394632</v>
       </c>
-      <c r="N73" s="412"/>
-      <c r="O73" s="413"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
       <c r="AB73">
         <v>154773.46674025033</v>
       </c>
@@ -13256,7 +12954,7 @@
         <f t="shared" si="13"/>
         <v>6796.5015659180362</v>
       </c>
-      <c r="AF73" s="414">
+      <c r="AF73" s="45">
         <f t="shared" si="14"/>
         <v>387400.58925732807</v>
       </c>
@@ -13306,16 +13004,16 @@
         <f t="shared" si="9"/>
         <v>313.00893488183186</v>
       </c>
-      <c r="L74" s="415">
+      <c r="L74" s="19">
         <f t="shared" si="10"/>
         <v>3443.0982837001507</v>
       </c>
-      <c r="M74" s="416">
+      <c r="M74" s="19">
         <f t="shared" si="11"/>
         <v>8364.5371813317633</v>
       </c>
-      <c r="N74" s="417"/>
-      <c r="O74" s="418"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
       <c r="AB74">
         <v>153859.62041785469</v>
       </c>
@@ -13327,7 +13025,7 @@
         <f t="shared" si="13"/>
         <v>6732.2391545987384</v>
       </c>
-      <c r="AF74" s="419">
+      <c r="AF74" s="45">
         <f t="shared" si="14"/>
         <v>390469.87096672686</v>
       </c>
@@ -13377,16 +13075,16 @@
         <f t="shared" si="9"/>
         <v>310.95833534115201</v>
       </c>
-      <c r="L75" s="420">
+      <c r="L75" s="19">
         <f t="shared" si="10"/>
         <v>3420.5416887526717</v>
       </c>
-      <c r="M75" s="421">
+      <c r="M75" s="19">
         <f t="shared" si="11"/>
         <v>8316.4910661848098</v>
       </c>
-      <c r="N75" s="422"/>
-      <c r="O75" s="423"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
       <c r="AB75">
         <v>152941.20486384706</v>
       </c>
@@ -13398,7 +13096,7 @@
         <f t="shared" si="13"/>
         <v>6668.5618938938078</v>
       </c>
-      <c r="AF75" s="424">
+      <c r="AF75" s="45">
         <f t="shared" si="14"/>
         <v>393445.15173973463</v>
       </c>
@@ -13448,16 +13146,16 @@
         <f t="shared" si="9"/>
         <v>308.91835643388862</v>
       </c>
-      <c r="L76" s="425">
+      <c r="L76" s="19">
         <f t="shared" si="10"/>
         <v>3398.1019207727745</v>
       </c>
-      <c r="M76" s="426">
+      <c r="M76" s="19">
         <f t="shared" si="11"/>
         <v>8268.6929010522927</v>
       </c>
-      <c r="N76" s="427"/>
-      <c r="O76" s="428"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
       <c r="AB76">
         <v>152018.19723206939</v>
       </c>
@@ -13469,7 +13167,7 @@
         <f t="shared" si="13"/>
         <v>6605.4645378108989</v>
       </c>
-      <c r="AF76" s="429">
+      <c r="AF76" s="45">
         <f t="shared" si="14"/>
         <v>396327.87226865394</v>
       </c>
@@ -13519,16 +13217,16 @@
         <f t="shared" si="9"/>
         <v>306.88894352543878</v>
       </c>
-      <c r="L77" s="430">
+      <c r="L77" s="19">
         <f t="shared" si="10"/>
         <v>3375.7783787798267</v>
       </c>
-      <c r="M77" s="431">
+      <c r="M77" s="19">
         <f t="shared" si="11"/>
         <v>8221.1414105809818</v>
       </c>
-      <c r="N77" s="432"/>
-      <c r="O77" s="433"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
       <c r="AB77">
         <v>151090.57456213282</v>
       </c>
@@ -13540,7 +13238,7 @@
         <f t="shared" si="13"/>
         <v>6542.9418870768559</v>
       </c>
-      <c r="AF77" s="434">
+      <c r="AF77" s="45">
         <f t="shared" si="14"/>
         <v>399119.45511168824</v>
       </c>
@@ -13590,16 +13288,16 @@
         <f t="shared" si="9"/>
         <v>304.87004226218835</v>
       </c>
-      <c r="L78" s="435">
+      <c r="L78" s="19">
         <f t="shared" si="10"/>
         <v>3353.5704648840715</v>
       </c>
-      <c r="M78" s="436">
+      <c r="M78" s="19">
         <f t="shared" si="11"/>
         <v>8173.8353259768355</v>
       </c>
-      <c r="N78" s="437"/>
-      <c r="O78" s="438"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
       <c r="AB78">
         <v>150158.31377884658</v>
       </c>
@@ -13611,7 +13309,7 @@
         <f t="shared" si="13"/>
         <v>6480.988788722857</v>
       </c>
-      <c r="AF78" s="439">
+      <c r="AF78" s="45">
         <f t="shared" si="14"/>
         <v>401821.30490081711</v>
       </c>
@@ -13661,16 +13359,16 @@
         <f t="shared" si="9"/>
         <v>302.86159857006635</v>
       </c>
-      <c r="L79" s="440">
+      <c r="L79" s="19">
         <f t="shared" si="10"/>
         <v>3331.4775842707295</v>
       </c>
-      <c r="M79" s="441">
+      <c r="M79" s="19">
         <f t="shared" si="11"/>
         <v>8126.7733849712577</v>
       </c>
-      <c r="N79" s="442"/>
-      <c r="O79" s="443"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
       <c r="AB79">
         <v>149221.39169164392</v>
       </c>
@@ -13682,7 +13380,7 @@
         <f t="shared" si="13"/>
         <v>6419.6001356732249</v>
       </c>
-      <c r="AF79" s="444">
+      <c r="AF79" s="45">
         <f t="shared" si="14"/>
         <v>404434.80854741315</v>
       </c>
@@ -13732,16 +13430,16 @@
         <f t="shared" si="9"/>
         <v>300.86355865310782</v>
       </c>
-      <c r="L80" s="445">
+      <c r="L80" s="19">
         <f t="shared" si="10"/>
         <v>3309.4991451841861</v>
       </c>
-      <c r="M80" s="446">
+      <c r="M80" s="19">
         <f t="shared" si="11"/>
         <v>8079.9543317875423</v>
       </c>
-      <c r="N80" s="447"/>
-      <c r="O80" s="448"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
       <c r="AB80">
         <v>148279.78499400523</v>
       </c>
@@ -13753,7 +13451,7 @@
         <f t="shared" si="13"/>
         <v>6358.7708663378962</v>
       </c>
-      <c r="AF80" s="449">
+      <c r="AF80" s="45">
         <f t="shared" si="14"/>
         <v>406961.33544562536</v>
       </c>
@@ -13803,16 +13501,16 @@
         <f t="shared" si="9"/>
         <v>298.87586899202307</v>
       </c>
-      <c r="L81" s="450">
+      <c r="L81" s="19">
         <f t="shared" si="10"/>
         <v>3287.6345589122539</v>
       </c>
-      <c r="M81" s="451">
+      <c r="M81" s="19">
         <f t="shared" si="11"/>
         <v>8033.3769171074782</v>
       </c>
-      <c r="N81" s="452"/>
-      <c r="O81" s="453"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
       <c r="AB81">
         <v>147333.47026287834</v>
       </c>
@@ -13824,7 +13522,7 @@
         <f t="shared" si="13"/>
         <v>6298.4959642084978</v>
       </c>
-      <c r="AF81" s="454">
+      <c r="AF81" s="45">
         <f t="shared" si="14"/>
         <v>409402.23767355236</v>
       </c>
@@ -13874,16 +13572,16 @@
         <f t="shared" ref="K82:K145" si="25">$C$11/12*E82</f>
         <v>296.8984763427751</v>
       </c>
-      <c r="L82" s="455">
+      <c r="L82" s="19">
         <f t="shared" ref="L82:L145" si="26">G82-K82</f>
         <v>3265.8832397705255</v>
       </c>
-      <c r="M82" s="456">
+      <c r="M82" s="19">
         <f t="shared" ref="M82:M145" si="27">H82+I82+L82</f>
         <v>7987.039898038146</v>
       </c>
-      <c r="N82" s="457"/>
-      <c r="O82" s="458"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
       <c r="AB82">
         <v>146382.42395809584</v>
       </c>
@@ -13895,7 +13593,7 @@
         <f t="shared" ref="AE82:AE145" si="29">AD82*M82</f>
         <v>6238.7704574580093</v>
       </c>
-      <c r="AF82" s="459">
+      <c r="AF82" s="45">
         <f t="shared" ref="AF82:AF145" si="30">AE82*B82</f>
         <v>411758.85019222862</v>
       </c>
@@ -13945,16 +13643,16 @@
         <f t="shared" si="25"/>
         <v>294.93132773516356</v>
       </c>
-      <c r="L83" s="460">
+      <c r="L83" s="19">
         <f t="shared" si="26"/>
         <v>3244.2446050867993</v>
       </c>
-      <c r="M83" s="461">
+      <c r="M83" s="19">
         <f t="shared" si="27"/>
         <v>7940.9420380788561</v>
       </c>
-      <c r="N83" s="462"/>
-      <c r="O83" s="463"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
       <c r="AB83">
         <v>145426.62242178942</v>
       </c>
@@ -13966,7 +13664,7 @@
         <f t="shared" si="29"/>
         <v>6179.5894185439647</v>
       </c>
-      <c r="AF83" s="464">
+      <c r="AF83" s="45">
         <f t="shared" si="30"/>
         <v>414032.49104244565</v>
       </c>
@@ -14016,16 +13714,16 @@
         <f t="shared" si="25"/>
         <v>292.97437047141688</v>
       </c>
-      <c r="L84" s="465">
+      <c r="L84" s="19">
         <f t="shared" si="26"/>
         <v>3222.7180751855853</v>
       </c>
-      <c r="M84" s="466">
+      <c r="M84" s="19">
         <f t="shared" si="27"/>
         <v>7895.0821070882885</v>
       </c>
-      <c r="N84" s="467"/>
-      <c r="O84" s="468"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
       <c r="AB84">
         <v>144466.04187780147</v>
       </c>
@@ -14037,7 +13735,7 @@
         <f t="shared" si="29"/>
         <v>6120.9479638151961</v>
       </c>
-      <c r="AF84" s="469">
+      <c r="AF84" s="45">
         <f t="shared" si="30"/>
         <v>416224.46153943334</v>
       </c>
@@ -14087,16 +13785,16 @@
         <f t="shared" si="25"/>
         <v>291.02755212479082</v>
       </c>
-      <c r="L85" s="470">
+      <c r="L85" s="19">
         <f t="shared" si="26"/>
         <v>3201.3030733726982</v>
       </c>
-      <c r="M85" s="471">
+      <c r="M85" s="19">
         <f t="shared" si="27"/>
         <v>7849.4588812517786</v>
       </c>
-      <c r="N85" s="472"/>
-      <c r="O85" s="473"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
       <c r="AB85">
         <v>143500.65843109359</v>
       </c>
@@ -14108,7 +13806,7 @@
         <f t="shared" si="29"/>
         <v>6062.8412531220365</v>
       </c>
-      <c r="AF85" s="474">
+      <c r="AF85" s="45">
         <f t="shared" si="30"/>
         <v>418336.04646542051</v>
       </c>
@@ -14158,16 +13856,16 @@
         <f t="shared" si="25"/>
         <v>289.09082053817451</v>
       </c>
-      <c r="L86" s="475">
+      <c r="L86" s="19">
         <f t="shared" si="26"/>
         <v>3179.9990259199194</v>
       </c>
-      <c r="M86" s="476">
+      <c r="M86" s="19">
         <f t="shared" si="27"/>
         <v>7804.0711430487763</v>
       </c>
-      <c r="N86" s="477"/>
-      <c r="O86" s="478"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
       <c r="AB86">
         <v>142530.44806715215</v>
       </c>
@@ -14179,7 +13877,7 @@
         <f t="shared" si="29"/>
         <v>6005.2644894300056</v>
       </c>
-      <c r="AF86" s="479">
+      <c r="AF86" s="45">
         <f t="shared" si="30"/>
         <v>420368.51426010038</v>
       </c>
@@ -14229,16 +13927,16 @@
         <f t="shared" si="25"/>
         <v>287.16412382270414</v>
       </c>
-      <c r="L87" s="480">
+      <c r="L87" s="19">
         <f t="shared" si="26"/>
         <v>3158.8053620497458</v>
       </c>
-      <c r="M87" s="481">
+      <c r="M87" s="19">
         <f t="shared" si="27"/>
         <v>7758.9176812204814</v>
       </c>
-      <c r="N87" s="482"/>
-      <c r="O87" s="483"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
       <c r="AB87">
         <v>141555.38665139102</v>
       </c>
@@ -14250,7 +13948,7 @@
         <f t="shared" si="29"/>
         <v>5948.212918436906</v>
       </c>
-      <c r="AF87" s="484">
+      <c r="AF87" s="45">
         <f t="shared" si="30"/>
         <v>422323.1172090203</v>
       </c>
@@ -14300,16 +13998,16 @@
         <f t="shared" si="25"/>
         <v>285.247410356383</v>
       </c>
-      <c r="L88" s="485">
+      <c r="L88" s="19">
         <f t="shared" si="26"/>
         <v>3137.7215139202131</v>
       </c>
-      <c r="M88" s="486">
+      <c r="M88" s="19">
         <f t="shared" si="27"/>
         <v>7713.9972907376432</v>
       </c>
-      <c r="N88" s="487"/>
-      <c r="O88" s="488"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
       <c r="AB88">
         <v>140575.44992855107</v>
       </c>
@@ -14321,7 +14019,7 @@
         <f t="shared" si="29"/>
         <v>5891.6818281933238</v>
       </c>
-      <c r="AF88" s="489">
+      <c r="AF88" s="45">
         <f t="shared" si="30"/>
         <v>424201.0916299193</v>
       </c>
@@ -14371,16 +14069,16 @@
         <f t="shared" si="25"/>
         <v>283.34062878270908</v>
       </c>
-      <c r="L89" s="490">
+      <c r="L89" s="19">
         <f t="shared" si="26"/>
         <v>3116.7469166097994</v>
       </c>
-      <c r="M89" s="491">
+      <c r="M89" s="19">
         <f t="shared" si="27"/>
         <v>7669.308772768507</v>
       </c>
-      <c r="N89" s="492"/>
-      <c r="O89" s="493"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
       <c r="AB89">
         <v>139590.61352209692</v>
       </c>
@@ -14392,7 +14090,7 @@
         <f t="shared" si="29"/>
         <v>5835.6665487264845</v>
       </c>
-      <c r="AF89" s="494">
+      <c r="AF89" s="45">
         <f t="shared" si="30"/>
         <v>426003.65805703338</v>
       </c>
@@ -14442,16 +14140,16 @@
         <f t="shared" si="25"/>
         <v>281.44372800930961</v>
       </c>
-      <c r="L90" s="495">
+      <c r="L90" s="19">
         <f t="shared" si="26"/>
         <v>3095.8810081024058</v>
       </c>
-      <c r="M90" s="496">
+      <c r="M90" s="19">
         <f t="shared" si="27"/>
         <v>7624.8509346469546</v>
       </c>
-      <c r="N90" s="497"/>
-      <c r="O90" s="498"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
       <c r="AB90">
         <v>138600.8529336105</v>
       </c>
@@ -14463,7 +14161,7 @@
         <f t="shared" si="29"/>
         <v>5780.1624516674565</v>
       </c>
-      <c r="AF90" s="499">
+      <c r="AF90" s="45">
         <f t="shared" si="30"/>
         <v>427732.02142339176</v>
       </c>
@@ -14513,16 +14211,16 @@
         <f t="shared" si="25"/>
         <v>279.55665720658271</v>
       </c>
-      <c r="L91" s="500">
+      <c r="L91" s="19">
         <f t="shared" si="26"/>
         <v>3075.1232292724098</v>
       </c>
-      <c r="M91" s="501">
+      <c r="M91" s="19">
         <f t="shared" si="27"/>
         <v>7580.6225898407874</v>
       </c>
-      <c r="N91" s="502"/>
-      <c r="O91" s="503"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
       <c r="AB91">
         <v>137606.14354218164</v>
       </c>
@@ -14534,7 +14232,7 @@
         <f t="shared" si="29"/>
         <v>5725.1649498816605</v>
       </c>
-      <c r="AF91" s="504">
+      <c r="AF91" s="45">
         <f t="shared" si="30"/>
         <v>429387.37124112452</v>
       </c>
@@ -14584,16 +14282,16 @@
         <f t="shared" si="25"/>
         <v>277.67936580634591</v>
       </c>
-      <c r="L92" s="505">
+      <c r="L92" s="19">
         <f t="shared" si="26"/>
         <v>3054.4730238698048</v>
       </c>
-      <c r="M92" s="506">
+      <c r="M92" s="19">
         <f t="shared" si="27"/>
         <v>7536.6225579201837</v>
       </c>
-      <c r="N92" s="507"/>
-      <c r="O92" s="508"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
       <c r="AB92">
         <v>136606.46060379565</v>
       </c>
@@ -14605,7 +14303,7 @@
         <f t="shared" si="29"/>
         <v>5670.6694971026418</v>
       </c>
-      <c r="AF92" s="509">
+      <c r="AF92" s="45">
         <f t="shared" si="30"/>
         <v>430970.88177980075</v>
       </c>
@@ -14655,16 +14353,16 @@
         <f t="shared" si="25"/>
         <v>275.81180350049158</v>
       </c>
-      <c r="L93" s="510">
+      <c r="L93" s="19">
         <f t="shared" si="26"/>
         <v>3033.9298385054071</v>
       </c>
-      <c r="M93" s="511">
+      <c r="M93" s="19">
         <f t="shared" si="27"/>
         <v>7492.8496645263058</v>
       </c>
-      <c r="N93" s="512"/>
-      <c r="O93" s="513"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
       <c r="AB93">
         <v>135601.77925071772</v>
       </c>
@@ -14676,7 +14374,7 @@
         <f t="shared" si="29"/>
         <v>5616.6715875691061</v>
       </c>
-      <c r="AF93" s="514">
+      <c r="AF93" s="45">
         <f t="shared" si="30"/>
         <v>432483.71224282117</v>
       </c>
@@ -14726,16 +14424,16 @@
         <f t="shared" si="25"/>
         <v>273.95392023964951</v>
       </c>
-      <c r="L94" s="515">
+      <c r="L94" s="19">
         <f t="shared" si="26"/>
         <v>3013.4931226361446</v>
       </c>
-      <c r="M94" s="516">
+      <c r="M94" s="19">
         <f t="shared" si="27"/>
         <v>7449.3027413400905</v>
       </c>
-      <c r="N94" s="517"/>
-      <c r="O94" s="518"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
       <c r="AB94">
         <v>134592.07449087442</v>
       </c>
@@ -14747,7 +14445,7 @@
         <f t="shared" si="29"/>
         <v>5563.1667556651773</v>
       </c>
-      <c r="AF94" s="519">
+      <c r="AF94" s="45">
         <f t="shared" si="30"/>
         <v>433927.00694188382</v>
       </c>
@@ -14797,16 +14495,16 @@
         <f t="shared" si="25"/>
         <v>272.10566623185616</v>
       </c>
-      <c r="L95" s="520">
+      <c r="L95" s="19">
         <f t="shared" si="26"/>
         <v>2993.1623285504179</v>
       </c>
-      <c r="M95" s="521">
+      <c r="M95" s="19">
         <f t="shared" si="27"/>
         <v>7405.9806260511705</v>
       </c>
-      <c r="N95" s="522"/>
-      <c r="O95" s="523"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
       <c r="AB95">
         <v>133577.3212072319</v>
       </c>
@@ -14818,7 +14516,7 @@
         <f t="shared" si="29"/>
         <v>5510.1505755638163</v>
       </c>
-      <c r="AF95" s="524">
+      <c r="AF95" s="45">
         <f t="shared" si="30"/>
         <v>435301.89546954149</v>
       </c>
@@ -14868,16 +14566,16 @@
         <f t="shared" si="25"/>
         <v>270.26699194123086</v>
       </c>
-      <c r="L96" s="525">
+      <c r="L96" s="19">
         <f t="shared" si="26"/>
         <v>2972.9369113535395</v>
       </c>
-      <c r="M96" s="526">
+      <c r="M96" s="19">
         <f t="shared" si="27"/>
         <v>7362.8821623269896</v>
       </c>
-      <c r="N96" s="527"/>
-      <c r="O96" s="528"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
       <c r="AB96">
         <v>132557.49415717117</v>
       </c>
@@ -14889,7 +14587,7 @@
         <f t="shared" si="29"/>
         <v>5457.6186608734497</v>
       </c>
-      <c r="AF96" s="529">
+      <c r="AF96" s="45">
         <f t="shared" si="30"/>
         <v>436609.49286987598</v>
       </c>
@@ -14939,15 +14637,15 @@
         <f t="shared" si="25"/>
         <v>268.43784808665862</v>
       </c>
-      <c r="L97" s="530">
+      <c r="L97" s="19">
         <f t="shared" si="26"/>
         <v>2952.8163289532445</v>
       </c>
-      <c r="M97" s="531">
+      <c r="M97" s="19">
         <f t="shared" si="27"/>
         <v>7320.0061997820376</v>
       </c>
-      <c r="N97" s="532"/>
+      <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="AB97">
         <v>131532.56797186012</v>
@@ -14960,7 +14658,7 @@
         <f t="shared" si="29"/>
         <v>5405.5666642876877</v>
       </c>
-      <c r="AF97" s="533">
+      <c r="AF97" s="45">
         <f t="shared" si="30"/>
         <v>437850.89980730269</v>
       </c>
@@ -15010,15 +14708,15 @@
         <f t="shared" si="25"/>
         <v>266.61818564047991</v>
       </c>
-      <c r="L98" s="534">
+      <c r="L98" s="19">
         <f t="shared" si="26"/>
         <v>2932.8000420452786</v>
       </c>
-      <c r="M98" s="535">
+      <c r="M98" s="19">
         <f t="shared" si="27"/>
         <v>7277.3515939472836</v>
       </c>
-      <c r="N98" s="536"/>
+      <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="AB98">
         <v>130502.51715562251</v>
@@ -15031,7 +14729,7 @@
         <f t="shared" si="29"/>
         <v>5353.9902772381793</v>
       </c>
-      <c r="AF98" s="537">
+      <c r="AF98" s="45">
         <f t="shared" si="30"/>
         <v>439027.20273353072</v>
       </c>
@@ -15081,15 +14779,15 @@
         <f t="shared" si="25"/>
         <v>264.80795582718736</v>
       </c>
-      <c r="L99" s="538">
+      <c r="L99" s="19">
         <f t="shared" si="26"/>
         <v>2912.8875140990608</v>
       </c>
-      <c r="M99" s="539">
+      <c r="M99" s="19">
         <f t="shared" si="27"/>
         <v>7234.9172062397356</v>
       </c>
-      <c r="N99" s="540"/>
+      <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="AB99">
         <v>129467.31608530373</v>
@@ -15102,7 +14800,7 @@
         <f t="shared" si="29"/>
         <v>5302.8852295505294</v>
       </c>
-      <c r="AF99" s="541">
+      <c r="AF99" s="45">
         <f t="shared" si="30"/>
         <v>440139.47405269393</v>
       </c>
@@ -15152,15 +14850,15 @@
         <f t="shared" si="25"/>
         <v>263.00711012212878</v>
       </c>
-      <c r="L100" s="542">
+      <c r="L100" s="19">
         <f t="shared" si="26"/>
         <v>2893.0782113434161</v>
       </c>
-      <c r="M100" s="543">
+      <c r="M100" s="19">
         <f t="shared" si="27"/>
         <v>7192.7019039321767</v>
       </c>
-      <c r="N100" s="544"/>
+      <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="AB100">
         <v>128426.93900963334</v>
@@ -15173,7 +14871,7 @@
         <f t="shared" si="29"/>
         <v>5252.2472891032785</v>
       </c>
-      <c r="AF100" s="545">
+      <c r="AF100" s="45">
         <f t="shared" si="30"/>
         <v>441188.77228467539</v>
       </c>
@@ -43319,6 +43017,13 @@
       <c r="D498" s="6"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{4363709D-E69A-4B4D-8BA5-19BFDEF0AED7}">
+      <selection activeCell="N6" sqref="N6"/>
+      <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -43331,15 +43036,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
-  <sheetProtection password="83AF" sheet="true" scenarios="true" objects="true"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetProtection password="83AF" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>